--- a/pred_ohlcv/54/2019-10-25 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-25 ORBS ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F2" t="n">
-        <v>69752.07150000001</v>
+        <v>67466.4253</v>
       </c>
       <c r="G2" t="n">
-        <v>12.58499999999999</v>
+        <v>12.57499999999999</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>4490</v>
+        <v>69752.07150000001</v>
       </c>
       <c r="G3" t="n">
-        <v>12.59833333333332</v>
+        <v>12.58499999999999</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C4" t="n">
         <v>13.2</v>
@@ -469,15 +480,18 @@
         <v>13.2</v>
       </c>
       <c r="E4" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F4" t="n">
-        <v>43821.0969</v>
+        <v>4490</v>
       </c>
       <c r="G4" t="n">
-        <v>12.61166666666666</v>
+        <v>12.59833333333332</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -489,21 +503,24 @@
         <v>13.1</v>
       </c>
       <c r="C5" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D5" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E5" t="n">
         <v>13.1</v>
       </c>
       <c r="F5" t="n">
-        <v>9495.374900000001</v>
+        <v>43821.0969</v>
       </c>
       <c r="G5" t="n">
-        <v>12.62499999999999</v>
+        <v>12.61166666666666</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>13.1</v>
       </c>
       <c r="F6" t="n">
-        <v>12912.4804</v>
+        <v>9495.374900000001</v>
       </c>
       <c r="G6" t="n">
-        <v>12.63833333333332</v>
+        <v>12.62499999999999</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C7" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E7" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F7" t="n">
-        <v>4190</v>
+        <v>12912.4804</v>
       </c>
       <c r="G7" t="n">
-        <v>12.64666666666666</v>
+        <v>12.63833333333332</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -567,21 +590,24 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D8" t="n">
         <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>4190</v>
       </c>
       <c r="G8" t="n">
-        <v>12.65833333333333</v>
+        <v>12.64666666666666</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>45000</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>12.66833333333333</v>
+        <v>12.65833333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>3501.534</v>
+        <v>45000</v>
       </c>
       <c r="G10" t="n">
-        <v>12.67666666666666</v>
+        <v>12.66833333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F11" t="n">
-        <v>36652.7815</v>
+        <v>3501.534</v>
       </c>
       <c r="G11" t="n">
-        <v>12.68666666666666</v>
+        <v>12.67666666666666</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D12" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>2363.5355</v>
+        <v>36652.7815</v>
       </c>
       <c r="G12" t="n">
-        <v>12.69499999999999</v>
+        <v>12.68666666666666</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F13" t="n">
-        <v>55168.2273</v>
+        <v>2363.5355</v>
       </c>
       <c r="G13" t="n">
-        <v>12.70499999999999</v>
+        <v>12.69499999999999</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>74942.8033</v>
+        <v>55168.2273</v>
       </c>
       <c r="G14" t="n">
-        <v>12.71499999999999</v>
+        <v>12.70499999999999</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>1000</v>
+        <v>74942.8033</v>
       </c>
       <c r="G15" t="n">
-        <v>12.72333333333333</v>
+        <v>12.71499999999999</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C16" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="D16" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F16" t="n">
-        <v>62690.4228</v>
+        <v>1000</v>
       </c>
       <c r="G16" t="n">
-        <v>12.73666666666666</v>
+        <v>12.72333333333333</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,21 +851,24 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>67952.5481</v>
+        <v>62690.4228</v>
       </c>
       <c r="G17" t="n">
-        <v>12.74833333333333</v>
+        <v>12.73666666666666</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>32047.4519</v>
+        <v>67952.5481</v>
       </c>
       <c r="G18" t="n">
-        <v>12.76</v>
+        <v>12.74833333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>3120</v>
+        <v>32047.4519</v>
       </c>
       <c r="G19" t="n">
-        <v>12.77333333333333</v>
+        <v>12.76</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>13.1</v>
       </c>
       <c r="F20" t="n">
-        <v>3130</v>
+        <v>3120</v>
       </c>
       <c r="G20" t="n">
-        <v>12.785</v>
+        <v>12.77333333333333</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>13.1</v>
       </c>
       <c r="F21" t="n">
-        <v>88650.78079999999</v>
+        <v>3130</v>
       </c>
       <c r="G21" t="n">
-        <v>12.79833333333333</v>
+        <v>12.785</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="D22" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F22" t="n">
-        <v>1234.8076</v>
+        <v>88650.78079999999</v>
       </c>
       <c r="G22" t="n">
-        <v>12.80666666666667</v>
+        <v>12.79833333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>12.9</v>
       </c>
       <c r="F23" t="n">
-        <v>1373.9548</v>
+        <v>1234.8076</v>
       </c>
       <c r="G23" t="n">
-        <v>12.81666666666667</v>
+        <v>12.80666666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F24" t="n">
-        <v>35661.1538</v>
+        <v>1373.9548</v>
       </c>
       <c r="G24" t="n">
-        <v>12.83</v>
+        <v>12.81666666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C25" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D25" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E25" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>68.3969</v>
+        <v>35661.1538</v>
       </c>
       <c r="G25" t="n">
-        <v>12.845</v>
+        <v>12.83</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F26" t="n">
-        <v>152160.8867</v>
+        <v>68.3969</v>
       </c>
       <c r="G26" t="n">
-        <v>12.85833333333333</v>
+        <v>12.845</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>6730.3427</v>
+        <v>152160.8867</v>
       </c>
       <c r="G27" t="n">
-        <v>12.87166666666666</v>
+        <v>12.85833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>42016.0896</v>
+        <v>6730.3427</v>
       </c>
       <c r="G28" t="n">
-        <v>12.88166666666666</v>
+        <v>12.87166666666666</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>133757.5769</v>
+        <v>42016.0896</v>
       </c>
       <c r="G29" t="n">
-        <v>12.89333333333333</v>
+        <v>12.88166666666666</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>23510</v>
+        <v>133757.5769</v>
       </c>
       <c r="G30" t="n">
-        <v>12.905</v>
+        <v>12.89333333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>13</v>
       </c>
       <c r="C31" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D31" t="n">
         <v>13</v>
       </c>
       <c r="E31" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F31" t="n">
-        <v>105696.4322</v>
+        <v>23510</v>
       </c>
       <c r="G31" t="n">
-        <v>12.91666666666666</v>
+        <v>12.905</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1191,21 +1286,24 @@
         <v>13</v>
       </c>
       <c r="C32" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D32" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E32" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F32" t="n">
-        <v>80247.5678</v>
+        <v>105696.4322</v>
       </c>
       <c r="G32" t="n">
-        <v>12.93333333333333</v>
+        <v>12.91666666666666</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>13</v>
       </c>
       <c r="C33" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E33" t="n">
         <v>13</v>
       </c>
       <c r="F33" t="n">
-        <v>13310</v>
+        <v>80247.5678</v>
       </c>
       <c r="G33" t="n">
-        <v>12.94666666666666</v>
+        <v>12.93333333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C34" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E34" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F34" t="n">
-        <v>27790.6117</v>
+        <v>13310</v>
       </c>
       <c r="G34" t="n">
-        <v>12.95666666666667</v>
+        <v>12.94666666666666</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>12.9</v>
       </c>
       <c r="F35" t="n">
-        <v>32807.88</v>
+        <v>27790.6117</v>
       </c>
       <c r="G35" t="n">
-        <v>12.96666666666667</v>
+        <v>12.95666666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="C36" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D36" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="E36" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="F36" t="n">
-        <v>1800.1515</v>
+        <v>32807.88</v>
       </c>
       <c r="G36" t="n">
-        <v>12.98166666666667</v>
+        <v>12.96666666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C37" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D37" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F37" t="n">
-        <v>462.7485</v>
+        <v>1800.1515</v>
       </c>
       <c r="G37" t="n">
-        <v>12.99166666666667</v>
+        <v>12.98166666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="C38" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="D38" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="E38" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="F38" t="n">
-        <v>41068.0928</v>
+        <v>462.7485</v>
       </c>
       <c r="G38" t="n">
-        <v>13</v>
+        <v>12.99166666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>12.9</v>
       </c>
       <c r="F39" t="n">
-        <v>3273.0232</v>
+        <v>41068.0928</v>
       </c>
       <c r="G39" t="n">
-        <v>13.00666666666667</v>
+        <v>13</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>12.9</v>
       </c>
       <c r="F40" t="n">
-        <v>78131.41009999999</v>
+        <v>3273.0232</v>
       </c>
       <c r="G40" t="n">
-        <v>13.01166666666666</v>
+        <v>13.00666666666667</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C41" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D41" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E41" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F41" t="n">
-        <v>188994.1982</v>
+        <v>78131.41009999999</v>
       </c>
       <c r="G41" t="n">
-        <v>13.015</v>
+        <v>13.01166666666666</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C42" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D42" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E42" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F42" t="n">
-        <v>1208706</v>
+        <v>188994.1982</v>
       </c>
       <c r="G42" t="n">
-        <v>13.01833333333333</v>
+        <v>13.015</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C43" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D43" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E43" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F43" t="n">
-        <v>41276.12</v>
+        <v>1208706</v>
       </c>
       <c r="G43" t="n">
-        <v>13.01999999999999</v>
+        <v>13.01833333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C44" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D44" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E44" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>41276.12</v>
       </c>
       <c r="G44" t="n">
-        <v>13.02166666666666</v>
+        <v>13.01999999999999</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C45" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D45" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E45" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F45" t="n">
-        <v>811.0278</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
         <v>13.02166666666666</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>12.8</v>
       </c>
       <c r="F46" t="n">
-        <v>44909.6763</v>
+        <v>811.0278</v>
       </c>
       <c r="G46" t="n">
-        <v>13.01833333333333</v>
+        <v>13.02166666666666</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C47" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D47" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E47" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>44909.6763</v>
       </c>
       <c r="G47" t="n">
-        <v>13.01666666666666</v>
+        <v>13.01833333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C48" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D48" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E48" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F48" t="n">
-        <v>2792.0636</v>
+        <v>100</v>
       </c>
       <c r="G48" t="n">
-        <v>13.01333333333333</v>
+        <v>13.01666666666666</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>12.8</v>
       </c>
       <c r="F49" t="n">
-        <v>65000.41</v>
+        <v>2792.0636</v>
       </c>
       <c r="G49" t="n">
-        <v>13.00666666666666</v>
+        <v>13.01333333333333</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C50" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D50" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E50" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>65000.41</v>
       </c>
       <c r="G50" t="n">
-        <v>13.00166666666666</v>
+        <v>13.00666666666666</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>12.9</v>
       </c>
       <c r="F51" t="n">
-        <v>274.031</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>12.99666666666666</v>
+        <v>13.00166666666666</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,21 +1866,24 @@
         <v>12.9</v>
       </c>
       <c r="C52" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D52" t="n">
         <v>12.9</v>
       </c>
       <c r="E52" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F52" t="n">
-        <v>223570.5952</v>
+        <v>274.031</v>
       </c>
       <c r="G52" t="n">
-        <v>12.98999999999999</v>
+        <v>12.99666666666666</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C53" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D53" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E53" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F53" t="n">
-        <v>20680.0448</v>
+        <v>223570.5952</v>
       </c>
       <c r="G53" t="n">
-        <v>12.98166666666665</v>
+        <v>12.98999999999999</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>12.7</v>
       </c>
       <c r="F54" t="n">
-        <v>80343.5772</v>
+        <v>20680.0448</v>
       </c>
       <c r="G54" t="n">
-        <v>12.97666666666666</v>
+        <v>12.98166666666665</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>12.7</v>
       </c>
       <c r="F55" t="n">
-        <v>160000</v>
+        <v>80343.5772</v>
       </c>
       <c r="G55" t="n">
-        <v>12.97333333333332</v>
+        <v>12.97666666666666</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C56" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D56" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E56" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F56" t="n">
-        <v>44808</v>
+        <v>160000</v>
       </c>
       <c r="G56" t="n">
-        <v>12.96666666666666</v>
+        <v>12.97333333333332</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>12.6</v>
       </c>
       <c r="F57" t="n">
-        <v>148076.6546</v>
+        <v>44808</v>
       </c>
       <c r="G57" t="n">
-        <v>12.95499999999999</v>
+        <v>12.96666666666666</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C58" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D58" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E58" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F58" t="n">
-        <v>29717.8435</v>
+        <v>148076.6546</v>
       </c>
       <c r="G58" t="n">
-        <v>12.94666666666666</v>
+        <v>12.95499999999999</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,12 +2078,15 @@
         <v>12.7</v>
       </c>
       <c r="F59" t="n">
-        <v>10980</v>
+        <v>29717.8435</v>
       </c>
       <c r="G59" t="n">
-        <v>12.93833333333333</v>
+        <v>12.94666666666666</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C60" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D60" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E60" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F60" t="n">
-        <v>150917.381</v>
+        <v>10980</v>
       </c>
       <c r="G60" t="n">
-        <v>12.92999999999999</v>
+        <v>12.93833333333333</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C61" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D61" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E61" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>150917.381</v>
       </c>
       <c r="G61" t="n">
-        <v>12.92333333333332</v>
+        <v>12.92999999999999</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="C62" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="D62" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="E62" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="F62" t="n">
-        <v>1863.5706</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>12.91499999999999</v>
+        <v>12.92333333333332</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C63" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D63" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E63" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F63" t="n">
-        <v>21000</v>
+        <v>1863.5706</v>
       </c>
       <c r="G63" t="n">
-        <v>12.90499999999999</v>
+        <v>12.91499999999999</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C64" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="D64" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="E64" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F64" t="n">
-        <v>200000</v>
+        <v>21000</v>
       </c>
       <c r="G64" t="n">
-        <v>12.89999999999999</v>
+        <v>12.90499999999999</v>
       </c>
       <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,7 +2240,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C65" t="n">
         <v>12.9</v>
@@ -2055,15 +2249,18 @@
         <v>12.9</v>
       </c>
       <c r="E65" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F65" t="n">
-        <v>12153</v>
+        <v>200000</v>
       </c>
       <c r="G65" t="n">
-        <v>12.89666666666666</v>
+        <v>12.89999999999999</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="C66" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="D66" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="E66" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="F66" t="n">
-        <v>138944.2598</v>
+        <v>12153</v>
       </c>
       <c r="G66" t="n">
-        <v>12.88999999999999</v>
+        <v>12.89666666666666</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C67" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D67" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E67" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F67" t="n">
-        <v>2631.2653</v>
+        <v>138944.2598</v>
       </c>
       <c r="G67" t="n">
-        <v>12.88833333333332</v>
+        <v>12.88999999999999</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2327,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C68" t="n">
         <v>12.8</v>
@@ -2133,15 +2336,18 @@
         <v>12.8</v>
       </c>
       <c r="E68" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F68" t="n">
-        <v>234.375</v>
+        <v>2631.2653</v>
       </c>
       <c r="G68" t="n">
-        <v>12.88499999999999</v>
+        <v>12.88833333333332</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C69" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D69" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E69" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F69" t="n">
-        <v>134871.1525</v>
+        <v>234.375</v>
       </c>
       <c r="G69" t="n">
-        <v>12.87999999999999</v>
+        <v>12.88499999999999</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>12.7</v>
       </c>
       <c r="F70" t="n">
-        <v>157214.7358</v>
+        <v>134871.1525</v>
       </c>
       <c r="G70" t="n">
-        <v>12.87666666666666</v>
+        <v>12.87999999999999</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C71" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D71" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="E71" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F71" t="n">
-        <v>10294.9218</v>
+        <v>157214.7358</v>
       </c>
       <c r="G71" t="n">
-        <v>12.87333333333332</v>
+        <v>12.87666666666666</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>12.8</v>
       </c>
       <c r="F72" t="n">
-        <v>38000</v>
+        <v>10294.9218</v>
       </c>
       <c r="G72" t="n">
-        <v>12.87166666666666</v>
+        <v>12.87333333333332</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>12.8</v>
       </c>
       <c r="F73" t="n">
-        <v>659.338</v>
+        <v>38000</v>
       </c>
       <c r="G73" t="n">
-        <v>12.86833333333332</v>
+        <v>12.87166666666666</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C74" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D74" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E74" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F74" t="n">
-        <v>22000</v>
+        <v>659.338</v>
       </c>
       <c r="G74" t="n">
-        <v>12.86666666666665</v>
+        <v>12.86833333333332</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>12.9</v>
       </c>
       <c r="F75" t="n">
-        <v>330</v>
+        <v>22000</v>
       </c>
       <c r="G75" t="n">
         <v>12.86666666666665</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>12.9</v>
       </c>
       <c r="F76" t="n">
-        <v>41480.2325</v>
+        <v>330</v>
       </c>
       <c r="G76" t="n">
-        <v>12.86333333333332</v>
+        <v>12.86666666666665</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C77" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D77" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E77" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F77" t="n">
-        <v>1030</v>
+        <v>41480.2325</v>
       </c>
       <c r="G77" t="n">
-        <v>12.85999999999999</v>
+        <v>12.86333333333332</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C78" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D78" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E78" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F78" t="n">
-        <v>266611.9697</v>
+        <v>1030</v>
       </c>
       <c r="G78" t="n">
-        <v>12.85333333333332</v>
+        <v>12.85999999999999</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>12.6</v>
       </c>
       <c r="F79" t="n">
-        <v>77406.746</v>
+        <v>266611.9697</v>
       </c>
       <c r="G79" t="n">
-        <v>12.84499999999999</v>
+        <v>12.85333333333332</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C80" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D80" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E80" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="F80" t="n">
-        <v>17413.3858</v>
+        <v>77406.746</v>
       </c>
       <c r="G80" t="n">
-        <v>12.83833333333332</v>
+        <v>12.84499999999999</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C81" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D81" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E81" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F81" t="n">
-        <v>157512.9023</v>
+        <v>17413.3858</v>
       </c>
       <c r="G81" t="n">
-        <v>12.82999999999999</v>
+        <v>12.83833333333332</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>12.6</v>
       </c>
       <c r="F82" t="n">
-        <v>6100.5121</v>
+        <v>157512.9023</v>
       </c>
       <c r="G82" t="n">
-        <v>12.82499999999999</v>
+        <v>12.82999999999999</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>12.6</v>
       </c>
       <c r="F83" t="n">
-        <v>247.4766</v>
+        <v>6100.5121</v>
       </c>
       <c r="G83" t="n">
-        <v>12.81999999999999</v>
+        <v>12.82499999999999</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>12.6</v>
       </c>
       <c r="F84" t="n">
-        <v>60648.1731</v>
+        <v>247.4766</v>
       </c>
       <c r="G84" t="n">
-        <v>12.81333333333332</v>
+        <v>12.81999999999999</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="C85" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D85" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="E85" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F85" t="n">
-        <v>343</v>
+        <v>60648.1731</v>
       </c>
       <c r="G85" t="n">
-        <v>12.80333333333332</v>
+        <v>12.81333333333332</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2595,21 +2852,24 @@
         <v>12.7</v>
       </c>
       <c r="C86" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D86" t="n">
         <v>12.7</v>
       </c>
       <c r="E86" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="F86" t="n">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="G86" t="n">
-        <v>12.79833333333332</v>
+        <v>12.80333333333332</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>12.7</v>
       </c>
       <c r="F87" t="n">
-        <v>103</v>
+        <v>333</v>
       </c>
       <c r="G87" t="n">
-        <v>12.79333333333332</v>
+        <v>12.79833333333332</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>12.7</v>
       </c>
       <c r="F88" t="n">
-        <v>29361.0188</v>
+        <v>103</v>
       </c>
       <c r="G88" t="n">
-        <v>12.78833333333333</v>
+        <v>12.79333333333332</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="C89" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="D89" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="E89" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>29361.0188</v>
       </c>
       <c r="G89" t="n">
-        <v>12.78166666666666</v>
+        <v>12.78833333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C90" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D90" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E90" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F90" t="n">
-        <v>17.5781</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>12.77833333333333</v>
+        <v>12.78166666666666</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C91" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D91" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E91" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>17.5781</v>
       </c>
       <c r="G91" t="n">
-        <v>12.77333333333332</v>
+        <v>12.77833333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C92" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D92" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E92" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F92" t="n">
-        <v>15718.0468</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>12.76666666666666</v>
+        <v>12.77333333333332</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C93" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D93" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="E93" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>15718.0468</v>
       </c>
       <c r="G93" t="n">
-        <v>12.75999999999999</v>
+        <v>12.76666666666666</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>12.6</v>
       </c>
       <c r="F94" t="n">
-        <v>42500</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>12.75499999999999</v>
+        <v>12.75999999999999</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="C95" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="D95" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="E95" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F95" t="n">
-        <v>11</v>
+        <v>42500</v>
       </c>
       <c r="G95" t="n">
-        <v>12.75333333333332</v>
+        <v>12.75499999999999</v>
       </c>
       <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2855,21 +3142,24 @@
         <v>12.8</v>
       </c>
       <c r="C96" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="D96" t="n">
-        <v>13.1</v>
+        <v>12.8</v>
       </c>
       <c r="E96" t="n">
         <v>12.8</v>
       </c>
       <c r="F96" t="n">
-        <v>349065.4574</v>
+        <v>11</v>
       </c>
       <c r="G96" t="n">
-        <v>12.75166666666666</v>
+        <v>12.75333333333332</v>
       </c>
       <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C97" t="n">
         <v>13.1</v>
@@ -2887,15 +3177,18 @@
         <v>13.1</v>
       </c>
       <c r="E97" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F97" t="n">
-        <v>843275.8297</v>
+        <v>349065.4574</v>
       </c>
       <c r="G97" t="n">
-        <v>12.75333333333332</v>
+        <v>12.75166666666666</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +3197,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="C98" t="n">
         <v>13.1</v>
@@ -2913,15 +3206,18 @@
         <v>13.1</v>
       </c>
       <c r="E98" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="F98" t="n">
-        <v>50240.8115</v>
+        <v>843275.8297</v>
       </c>
       <c r="G98" t="n">
-        <v>12.75666666666666</v>
+        <v>12.75333333333332</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C99" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="D99" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E99" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F99" t="n">
-        <v>19017.6456</v>
+        <v>50240.8115</v>
       </c>
       <c r="G99" t="n">
-        <v>12.75499999999999</v>
+        <v>12.75666666666666</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,25 +3255,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C100" t="n">
         <v>12.8</v>
       </c>
       <c r="D100" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="E100" t="n">
         <v>12.8</v>
       </c>
       <c r="F100" t="n">
-        <v>52789.1217</v>
+        <v>19017.6456</v>
       </c>
       <c r="G100" t="n">
-        <v>12.75333333333332</v>
+        <v>12.75499999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C101" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D101" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E101" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F101" t="n">
-        <v>54000</v>
+        <v>52789.1217</v>
       </c>
       <c r="G101" t="n">
-        <v>12.75499999999999</v>
+        <v>12.75333333333332</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C102" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D102" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E102" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>54000</v>
       </c>
       <c r="G102" t="n">
-        <v>12.75333333333332</v>
+        <v>12.75499999999999</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>12.8</v>
       </c>
       <c r="F103" t="n">
-        <v>119468.3682</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
         <v>12.75333333333332</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>12.8</v>
       </c>
       <c r="F104" t="n">
-        <v>9447.2006</v>
+        <v>119468.3682</v>
       </c>
       <c r="G104" t="n">
-        <v>12.75166666666666</v>
+        <v>12.75333333333332</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C105" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D105" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E105" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F105" t="n">
-        <v>11</v>
+        <v>9447.2006</v>
       </c>
       <c r="G105" t="n">
-        <v>12.75333333333332</v>
+        <v>12.75166666666666</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="C106" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D106" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E106" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="F106" t="n">
-        <v>155688.1737</v>
+        <v>11</v>
       </c>
       <c r="G106" t="n">
         <v>12.75333333333332</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C107" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D107" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="E107" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>155688.1737</v>
       </c>
       <c r="G107" t="n">
-        <v>12.74999999999999</v>
+        <v>12.75333333333332</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="C108" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="D108" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="E108" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="F108" t="n">
-        <v>155782.1930527132</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>12.75166666666666</v>
+        <v>12.74999999999999</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3193,21 +3519,24 @@
         <v>12.8</v>
       </c>
       <c r="C109" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="D109" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="E109" t="n">
         <v>12.8</v>
       </c>
       <c r="F109" t="n">
-        <v>1162.2265</v>
+        <v>155782.1930527132</v>
       </c>
       <c r="G109" t="n">
         <v>12.75166666666666</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>12.8</v>
       </c>
       <c r="F110" t="n">
-        <v>262.1796</v>
+        <v>1162.2265</v>
       </c>
       <c r="G110" t="n">
-        <v>12.74999999999999</v>
+        <v>12.75166666666666</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>12.8</v>
       </c>
       <c r="F111" t="n">
-        <v>5345.5078</v>
+        <v>262.1796</v>
       </c>
       <c r="G111" t="n">
-        <v>12.74833333333333</v>
+        <v>12.74999999999999</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>12.8</v>
       </c>
       <c r="F112" t="n">
-        <v>148918.4711</v>
+        <v>5345.5078</v>
       </c>
       <c r="G112" t="n">
         <v>12.74833333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="C113" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D113" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="E113" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="F113" t="n">
-        <v>29667.3643</v>
+        <v>148918.4711</v>
       </c>
       <c r="G113" t="n">
-        <v>12.75166666666666</v>
+        <v>12.74833333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>12.9</v>
       </c>
       <c r="F114" t="n">
-        <v>78588.31164728683</v>
+        <v>29667.3643</v>
       </c>
       <c r="G114" t="n">
-        <v>12.75499999999999</v>
+        <v>12.75166666666666</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C115" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="D115" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="E115" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F115" t="n">
-        <v>92304.6924</v>
+        <v>78588.31164728683</v>
       </c>
       <c r="G115" t="n">
-        <v>12.75999999999999</v>
+        <v>12.75499999999999</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C116" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D116" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E116" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F116" t="n">
-        <v>101544.1719</v>
+        <v>92304.6924</v>
       </c>
       <c r="G116" t="n">
-        <v>12.76833333333332</v>
+        <v>12.75999999999999</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C117" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D117" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E117" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F117" t="n">
-        <v>48488.409</v>
+        <v>101544.1719</v>
       </c>
       <c r="G117" t="n">
-        <v>12.77833333333332</v>
+        <v>12.76833333333332</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,25 +3777,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C118" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D118" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="E118" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F118" t="n">
-        <v>10</v>
+        <v>48488.409</v>
       </c>
       <c r="G118" t="n">
-        <v>12.78333333333332</v>
+        <v>12.77833333333332</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3450,545 +3806,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C119" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D119" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="E119" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F119" t="n">
-        <v>41159.8091</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>12.78999999999999</v>
+        <v>12.78333333333332</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C120" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D120" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E120" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F120" t="n">
-        <v>98787.57180000001</v>
-      </c>
-      <c r="G120" t="n">
-        <v>12.79833333333332</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C121" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D121" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E121" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F121" t="n">
-        <v>457083.9844</v>
-      </c>
-      <c r="G121" t="n">
-        <v>12.80499999999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C122" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D122" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E122" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F122" t="n">
-        <v>63578.1589</v>
-      </c>
-      <c r="G122" t="n">
-        <v>12.81666666666666</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C123" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D123" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E123" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F123" t="n">
-        <v>75164.66160000001</v>
-      </c>
-      <c r="G123" t="n">
-        <v>12.82666666666666</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C124" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E124" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>110000</v>
-      </c>
-      <c r="G124" t="n">
-        <v>12.83166666666666</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C125" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D125" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E125" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F125" t="n">
-        <v>129901.7045</v>
-      </c>
-      <c r="G125" t="n">
-        <v>12.83666666666666</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C126" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D126" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E126" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F126" t="n">
-        <v>149442.6315</v>
-      </c>
-      <c r="G126" t="n">
-        <v>12.84666666666666</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="C127" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="E127" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>85.0733</v>
-      </c>
-      <c r="G127" t="n">
-        <v>12.85166666666666</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C128" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D128" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E128" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F128" t="n">
-        <v>42733</v>
-      </c>
-      <c r="G128" t="n">
-        <v>12.85833333333333</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C129" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D129" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E129" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F129" t="n">
-        <v>51536.1227</v>
-      </c>
-      <c r="G129" t="n">
-        <v>12.86999999999999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C130" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D130" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E130" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F130" t="n">
-        <v>75187.9699</v>
-      </c>
-      <c r="G130" t="n">
-        <v>12.88166666666666</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C131" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D131" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E131" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F131" t="n">
-        <v>137458.5142</v>
-      </c>
-      <c r="G131" t="n">
-        <v>12.89166666666666</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C132" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D132" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="E132" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F132" t="n">
-        <v>183824.6968</v>
-      </c>
-      <c r="G132" t="n">
-        <v>12.90166666666666</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C133" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D133" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E133" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F133" t="n">
-        <v>5040</v>
-      </c>
-      <c r="G133" t="n">
-        <v>12.91166666666666</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C134" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E134" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="F134" t="n">
-        <v>78499.88589999999</v>
-      </c>
-      <c r="G134" t="n">
-        <v>12.91499999999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="C135" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="D135" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="E135" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="F135" t="n">
-        <v>100</v>
-      </c>
-      <c r="G135" t="n">
-        <v>12.92333333333332</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C136" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D136" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E136" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F136" t="n">
-        <v>10</v>
-      </c>
-      <c r="G136" t="n">
-        <v>12.92833333333333</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C137" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D137" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E137" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F137" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G137" t="n">
-        <v>12.935</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="D138" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="E138" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F138" t="n">
-        <v>729.5018</v>
-      </c>
-      <c r="G138" t="n">
-        <v>12.94666666666666</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="C139" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="D139" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E139" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F139" t="n">
-        <v>10</v>
-      </c>
-      <c r="G139" t="n">
-        <v>12.95666666666666</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
+      <c r="I119" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
